--- a/Tests/Graphs of Median Filter and Edge Detection.xlsx
+++ b/Tests/Graphs of Median Filter and Edge Detection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelaltshuler/Documents/4th Year/EEE4120F/YODA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/zlljul001_myuct_ac_za/Documents/Yoda-Project-/Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDBD0C5E-3B63-9146-B3BD-9F2BF10F4080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{CDBD0C5E-3B63-9146-B3BD-9F2BF10F4080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8556F87E-9573-440E-98E7-21ECE1B65F79}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13880" xr2:uid="{8E68B16A-DD53-49E0-B0D0-1C3592AD47C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E68B16A-DD53-49E0-B0D0-1C3592AD47C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">Total Pixels </t>
   </si>
@@ -53,6 +75,12 @@
   </si>
   <si>
     <t>Runtimes of Sequential Edge Detection Implementation</t>
+  </si>
+  <si>
+    <t>800watermelon.txt</t>
+  </si>
+  <si>
+    <t>Speed-up</t>
   </si>
 </sst>
 </file>
@@ -91,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,11 +142,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -126,6 +163,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,32 +478,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5ABB6D-F9EA-4A2B-AE69-1365F8F1D514}">
-  <dimension ref="C1:O13"/>
+  <dimension ref="C1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -479,7 +517,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -492,6 +530,9 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
@@ -505,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="2">
         <v>10</v>
       </c>
@@ -516,7 +557,13 @@
       <c r="E4" s="2">
         <v>3116</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>69862</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4:G13">E4:E13/F4:F13</f>
+        <v>4.4602215796856658E-2</v>
+      </c>
       <c r="L4" s="2">
         <v>10</v>
       </c>
@@ -527,9 +574,8 @@
       <c r="N4" s="2">
         <v>240</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>50</v>
       </c>
@@ -540,7 +586,12 @@
       <c r="E5" s="2">
         <v>3961</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>71977</v>
+      </c>
+      <c r="G5">
+        <v>5.5031468385734333E-2</v>
+      </c>
       <c r="L5" s="2">
         <v>50</v>
       </c>
@@ -551,9 +602,8 @@
       <c r="N5" s="2">
         <v>2558</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>100</v>
       </c>
@@ -564,7 +614,12 @@
       <c r="E6" s="2">
         <v>14026</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>78005</v>
+      </c>
+      <c r="G6">
+        <v>0.17980898660342287</v>
+      </c>
       <c r="L6" s="2">
         <v>100</v>
       </c>
@@ -575,9 +630,8 @@
       <c r="N6" s="2">
         <v>4573</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>200</v>
       </c>
@@ -588,7 +642,12 @@
       <c r="E7" s="2">
         <v>57704</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>90068</v>
+      </c>
+      <c r="G7">
+        <v>0.64067149264999779</v>
+      </c>
       <c r="L7" s="2">
         <v>200</v>
       </c>
@@ -599,9 +658,8 @@
       <c r="N7" s="2">
         <v>12773</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>300</v>
       </c>
@@ -612,7 +670,12 @@
       <c r="E8" s="2">
         <v>114742</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>103924</v>
+      </c>
+      <c r="G8">
+        <v>1.1040953004118395</v>
+      </c>
       <c r="L8" s="2">
         <v>300</v>
       </c>
@@ -625,7 +688,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>400</v>
       </c>
@@ -636,7 +699,12 @@
       <c r="E9" s="2">
         <v>191069</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>129294</v>
+      </c>
+      <c r="G9">
+        <v>1.4777870589509181</v>
+      </c>
       <c r="L9" s="2">
         <v>400</v>
       </c>
@@ -649,7 +717,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>500</v>
       </c>
@@ -660,7 +728,12 @@
       <c r="E10" s="2">
         <v>300436</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>162734</v>
+      </c>
+      <c r="G10">
+        <v>1.8461784261432768</v>
+      </c>
       <c r="L10" s="2">
         <v>500</v>
       </c>
@@ -673,7 +746,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>600</v>
       </c>
@@ -684,7 +757,12 @@
       <c r="E11" s="2">
         <v>444151</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>203568</v>
+      </c>
+      <c r="G11">
+        <v>2.1818311325945139</v>
+      </c>
       <c r="L11" s="2">
         <v>600</v>
       </c>
@@ -697,7 +775,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>700</v>
       </c>
@@ -709,6 +787,9 @@
         <v>516018</v>
       </c>
       <c r="F12" s="2"/>
+      <c r="G12" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="L12" s="2">
         <v>700</v>
       </c>
@@ -721,7 +802,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>800</v>
       </c>
@@ -733,6 +814,9 @@
         <v>686607</v>
       </c>
       <c r="F13" s="2"/>
+      <c r="G13" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="L13" s="2">
         <v>800</v>
       </c>
@@ -744,6 +828,39 @@
         <v>172335</v>
       </c>
       <c r="O13" s="2"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>14987</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>27644</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>45712</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
